--- a/biology/Zoologie/Épigyne/Épigyne.xlsx
+++ b/biology/Zoologie/Épigyne/Épigyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pigyne</t>
+          <t>Épigyne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’épigyne, parfois appelé par son nom scientifique latin d’epigynum, est la pièce tégumentaire génitale externe présente chez certaines femelles d'araignées.
 Cette pièce dure a souvent la forme d'une plaque ornementée caractéristique qui permet de reconnaître l'espèce chez les araignées dites « entélégynes ».
-Certains groupes d'araignées n'ont pas cet ornement extérieur qui recouvre l’orifice femelle, par exemple chez les Mygales, les Haplogynes, les Tetragnathidae[1].
+Certains groupes d'araignées n'ont pas cet ornement extérieur qui recouvre l’orifice femelle, par exemple chez les Mygales, les Haplogynes, les Tetragnathidae.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pigyne</t>
+          <t>Épigyne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Généralement, le mâle maintient la femelle avec ses pattes avant et tente de la soulever suffisamment afin de placer ses bulbes copulateurs en contact avec l'épigyne. La forme de cette plaque correspond à celle des bulbes portés par les pédipalpes du mâle, comme le prévoit la théorie de la Sélection sexuelle intraspécifique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement, le mâle maintient la femelle avec ses pattes avant et tente de la soulever suffisamment afin de placer ses bulbes copulateurs en contact avec l'épigyne. La forme de cette plaque correspond à celle des bulbes portés par les pédipalpes du mâle, comme le prévoit la théorie de la Sélection sexuelle intraspécifique.
 </t>
         </is>
       </c>
